--- a/tests/data_test/data_test_gross_net.xlsx
+++ b/tests/data_test/data_test_gross_net.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corin.tran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\grossnet\NetEase\tests\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38171BC-7968-4FBB-9339-668F6DF95F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC257E-5A20-4E8D-84EB-47CF3A013B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DCD3E282-77F7-42D9-8E29-078EB527AB4C}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="19200" windowHeight="11690" xr2:uid="{DCD3E282-77F7-42D9-8E29-078EB527AB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Employee Name</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Sophia Robinson</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECA6E7D-FAE9-42D2-9083-B55743828530}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,7 +504,7 @@
     <col min="1" max="16384" width="19.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -515,10 +518,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -531,8 +537,11 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -545,8 +554,11 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -559,8 +571,11 @@
       <c r="D4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -573,8 +588,11 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -587,8 +605,11 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -601,8 +622,11 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -615,8 +639,11 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -629,8 +656,11 @@
       <c r="D9" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -643,8 +673,11 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -657,8 +690,11 @@
       <c r="D11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -671,8 +707,11 @@
       <c r="D12" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -685,8 +724,11 @@
       <c r="D13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -699,8 +741,11 @@
       <c r="D14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -713,8 +758,11 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -726,6 +774,9 @@
       </c>
       <c r="D16" s="3">
         <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
